--- a/1/8/Indicadores de producción y ventas 2003 a 2021 - Trimestral.xlsx
+++ b/1/8/Indicadores de producción y ventas 2003 a 2021 - Trimestral.xlsx
@@ -3353,13 +3353,13 @@
         <v>109.9</v>
       </c>
       <c r="L72">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="M72">
         <v>146.8</v>
       </c>
       <c r="R72">
-        <v>62390</v>
+        <v>62398</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -3391,7 +3391,7 @@
         <v>174</v>
       </c>
       <c r="R73">
-        <v>93686</v>
+        <v>93691</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -3446,13 +3446,13 @@
         <v>20182.3</v>
       </c>
       <c r="K75">
-        <v>130.1</v>
+        <v>129.9</v>
       </c>
       <c r="L75">
-        <v>116.5</v>
+        <v>116.2</v>
       </c>
       <c r="M75">
-        <v>187.9</v>
+        <v>187.8</v>
       </c>
       <c r="R75">
         <v>96870</v>

--- a/1/8/Indicadores de producción y ventas 2003 a 2021 - Trimestral.xlsx
+++ b/1/8/Indicadores de producción y ventas 2003 a 2021 - Trimestral.xlsx
@@ -3353,7 +3353,7 @@
         <v>109.9</v>
       </c>
       <c r="L72">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="M72">
         <v>146.8</v>

--- a/1/8/Indicadores de producción y ventas 2003 a 2021 - Trimestral.xlsx
+++ b/1/8/Indicadores de producción y ventas 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Serie</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3458,6 +3461,14 @@
         <v>96870</v>
       </c>
     </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76">
+        <v>118417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/8/Indicadores de producción y ventas 2003 a 2021 - Trimestral.xlsx
+++ b/1/8/Indicadores de producción y ventas 2003 a 2021 - Trimestral.xlsx
@@ -3353,10 +3353,10 @@
         <v>19092.8</v>
       </c>
       <c r="K72">
-        <v>109.9</v>
+        <v>110</v>
       </c>
       <c r="L72">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="M72">
         <v>146.8</v>
@@ -3464,6 +3464,30 @@
     <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>91</v>
+      </c>
+      <c r="B76">
+        <v>101.3</v>
+      </c>
+      <c r="C76">
+        <v>95.2</v>
+      </c>
+      <c r="D76">
+        <v>104.9</v>
+      </c>
+      <c r="E76">
+        <v>111.7</v>
+      </c>
+      <c r="J76">
+        <v>20706.4</v>
+      </c>
+      <c r="K76">
+        <v>146.2</v>
+      </c>
+      <c r="L76">
+        <v>136.8</v>
+      </c>
+      <c r="M76">
+        <v>185.8</v>
       </c>
       <c r="R76">
         <v>118417</v>
